--- a/biology/Écologie/David_Goodall/David_Goodall.xlsx
+++ b/biology/Écologie/David_Goodall/David_Goodall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David William Goodall né le 4 avril 1914 à Edmonton (Royaume-Uni) et mort le 10 mai 2018 à Liestal (Suisse)[1] est un botaniste australien, précurseur de l'utilisation de méthodes statistiques dans l'étude de la croissance et l'évolution des plantes. Il était chercheur et enseignant en Angleterre, Australie, Ghana et États-Unis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David William Goodall né le 4 avril 1914 à Edmonton (Royaume-Uni) et mort le 10 mai 2018 à Liestal (Suisse) est un botaniste australien, précurseur de l'utilisation de méthodes statistiques dans l'étude de la croissance et l'évolution des plantes. Il était chercheur et enseignant en Angleterre, Australie, Ghana et États-Unis.
 Lorsqu'il devint centenaire, il était alors réputé comme étant le scientifique australien le plus âgé encore en activité. Militant pour la légalisation de l’euthanasie volontaire, il décide à l'âge de 104 ans de partir en Suisse pour y mourir par suicide assisté après avoir médiatisé sa démarche.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Enfance et scolarité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">David William Goodall naît le 4 avril 1914 à Edmonton, un arrondissement de nord de Londres. En 1935, il obtient son baccalauréat scientifique puis étudie au collège impérial de Londres. Sa thèse PhD l’amène à faire des recherches sur des plants de tomates sur le site expérimentale d'East Malling dans le Kent.
 </t>
@@ -543,10 +557,12 @@
           <t>Recherche et carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1948, il part pour l'Australie car nommé lecteur en botanique à l'université de Melbourne. Il obtient son doctorat en science en 1953. De 1952 à 1954, il occupe un poste à l’université de Côte-de-l'Or (désormais le Ghana) pour y mener des études sur le cacao. Il enseignera successivement la botanique puis les écosystèmes à l'université de Reading, l'université de Californie à Irvine et l'université d'État de l'Utah. Il est membre de l'équivalent australien du CNRS (le CSIRO) jusqu'à sa retraite en 1979.
-En 2016, il fait les gros titre de la presse car il tente de s'opposer à son éviction de l'université Edith Cowan de Perth où il exerçait encore comme chercheur associé honoraire[2]. L'université justifiait ce départ en raison de l'âge très avancé de Goodall et des risques importants liés à ses déplacements. Mais face à l'émoi de la communauté scientifique, y compris internationale, l'université Edith Cowan était revenue sur sa décision. 
+En 2016, il fait les gros titre de la presse car il tente de s'opposer à son éviction de l'université Edith Cowan de Perth où il exerçait encore comme chercheur associé honoraire. L'université justifiait ce départ en raison de l'âge très avancé de Goodall et des risques importants liés à ses déplacements. Mais face à l'émoi de la communauté scientifique, y compris internationale, l'université Edith Cowan était revenue sur sa décision. 
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Décès médiatisé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que ne souffrant d'aucune maladie en phase terminale, mais estimant qu'il est temps pour lui de partir car jugeant que sa qualité de vie s’était détériorée, David Goodall rejoint l'association Exit International pour militer la légalisation de l’euthanasie volontaire en Australie.
 « Je regrette profondément d'avoir atteint mon âge. [...] Je ne suis pas heureux. Je veux mourir. Ce n'est pas particulièrement triste. Ce qui est triste c'est d'en être empêché. Mon sentiment c'est qu'une personne âgée comme moi doit bénéficier de ses droits de citoyen pleins et entiers, y compris du droit à l'aide au suicide. »
